--- a/template/receipt-template.xlsx
+++ b/template/receipt-template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEE5F73-7A3F-4C5C-BF24-6B8CF98A247B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C33E0F7-1E2E-4E9A-B447-1B994E09D225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" xWindow="-24465" yWindow="2280" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" xWindow="3660" yWindow="1545" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="領収書" sheetId="3" r:id="rId1"/>
@@ -113,19 +113,22 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>下記、まさに領収いたしました</t>
+    <t>摘要</t>
     <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リョウシュウ</t>
+      <t>テキヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>適用</t>
+    <t>下記、正に領収いたしました</t>
     <rPh sb="0" eb="2">
-      <t>テキヨウ</t>
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リョウシュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -718,7 +721,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -864,6 +867,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -880,10 +886,10 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -931,13 +937,13 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1495,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1536,15 +1542,15 @@
       <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
@@ -1565,8 +1571,8 @@
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
@@ -1581,10 +1587,10 @@
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="78"/>
+      <c r="G8" s="79"/>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
@@ -1599,16 +1605,16 @@
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="67"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
@@ -1616,10 +1622,10 @@
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="69"/>
     </row>
     <row r="12" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
@@ -1641,8 +1647,8 @@
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
     </row>
     <row r="14" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
@@ -1699,114 +1705,114 @@
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="79" t="s">
-        <v>11</v>
+      <c r="A20" s="80" t="s">
+        <v>10</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
       <c r="E20" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="64"/>
+      <c r="G20" s="65"/>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="29"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="29"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="29"/>
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="85"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="29"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="85"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="29"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="85"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="85"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="90"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="93"/>
       <c r="E29" s="53"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="90"/>
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="73"/>
       <c r="E30" s="54">
         <f>SUM(E21:E29)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="75"/>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
@@ -1921,8 +1927,8 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
       <c r="B43" s="42"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
       <c r="E43" s="42"/>
       <c r="F43" s="42"/>
       <c r="G43" s="43"/>

--- a/template/receipt-template.xlsx
+++ b/template/receipt-template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C33E0F7-1E2E-4E9A-B447-1B994E09D225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3915627A-DC95-4A02-9AB1-C4506F895597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" xWindow="3660" yWindow="1545" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" xWindow="4650" yWindow="1935" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="領収書" sheetId="3" r:id="rId1"/>
@@ -721,99 +721,90 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -821,7 +812,7 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -837,17 +828,17 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -857,117 +848,113 @@
     <xf numFmtId="179" fontId="13" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="179" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1076,55 +1063,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>658584</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>118382</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>56738</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47338F37-E13C-457B-BC3E-66E76A1B1CDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7380513" y="2050596"/>
-          <a:ext cx="1670546" cy="1820636"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1433,7 +1371,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1477,7 +1415,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1502,7 +1440,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1519,16 +1457,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="7"/>
-      <c r="G1" s="10"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="48">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="43">
         <v>44757</v>
       </c>
     </row>
@@ -1539,459 +1477,447 @@
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="49"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="59" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="78" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="79"/>
+      <c r="G8" s="80"/>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="11" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="68" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="68"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="68" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="69"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="18">
         <f>E30</f>
         <v>0</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
     </row>
     <row r="14" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="28" t="s">
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="65"/>
+      <c r="G20" s="69"/>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="71"/>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="77"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="77"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="77"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="77"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="90"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56"/>
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="54">
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="49">
         <f>SUM(E21:E29)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="74"/>
-      <c r="G30" s="75"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="38"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="38"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="38"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="38"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="41"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="41"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="43"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="38"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="43"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="38"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="43"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="38"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="43"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="38"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="43"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="47"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A4:G4"/>
@@ -2008,6 +1934,18 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2017,6 +1955,5 @@
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="48" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/template/receipt-template.xlsx
+++ b/template/receipt-template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3915627A-DC95-4A02-9AB1-C4506F895597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D3ED4E-5865-43D4-8DAF-DAE865C0B727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" xWindow="4650" yWindow="1935" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" xWindow="1710" yWindow="540" windowWidth="23715" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="領収書" sheetId="3" r:id="rId1"/>
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1467,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="43">
-        <v>44757</v>
+        <v>44892</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1490,7 +1490,7 @@
       <c r="F4" s="67"/>
       <c r="G4" s="67"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
@@ -1499,7 +1499,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="12"/>
@@ -1508,7 +1508,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="66"/>
       <c r="B7" s="66"/>
       <c r="C7" s="53" t="s">
